--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H2">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I2">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J2">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N2">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q2">
-        <v>1.361009777068889</v>
+        <v>81.88873473545112</v>
       </c>
       <c r="R2">
-        <v>12.24908799362</v>
+        <v>736.9986126190601</v>
       </c>
       <c r="S2">
-        <v>7.87286999737126E-05</v>
+        <v>0.002505330517002336</v>
       </c>
       <c r="T2">
-        <v>7.87286999737126E-05</v>
+        <v>0.002505330517002336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H3">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I3">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J3">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N3">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q3">
-        <v>3386.109876115949</v>
+        <v>8517.168185744767</v>
       </c>
       <c r="R3">
-        <v>30474.98888504354</v>
+        <v>76654.51367170289</v>
       </c>
       <c r="S3">
-        <v>0.1958722361928075</v>
+        <v>0.2605770066312922</v>
       </c>
       <c r="T3">
-        <v>0.1958722361928075</v>
+        <v>0.2605770066312923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H4">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I4">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J4">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N4">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q4">
-        <v>4556.27750456085</v>
+        <v>1.747059303977778</v>
       </c>
       <c r="R4">
-        <v>41006.49754104765</v>
+        <v>15.7235337358</v>
       </c>
       <c r="S4">
-        <v>0.2635615193199238</v>
+        <v>5.345009913034499E-05</v>
       </c>
       <c r="T4">
-        <v>0.2635615193199238</v>
+        <v>5.345009913034499E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H5">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I5">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J5">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N5">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="O5">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P5">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q5">
-        <v>2414.722298589308</v>
+        <v>8510.681188470939</v>
       </c>
       <c r="R5">
-        <v>21732.50068730377</v>
+        <v>76596.13069623846</v>
       </c>
       <c r="S5">
-        <v>0.1396815442243871</v>
+        <v>0.2603785413321723</v>
       </c>
       <c r="T5">
-        <v>0.1396815442243872</v>
+        <v>0.2603785413321723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.321225333333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H6">
-        <v>3.963676</v>
+        <v>116.59153</v>
       </c>
       <c r="I6">
-        <v>0.03268491113714848</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J6">
-        <v>0.03268491113714848</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05619066666666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N6">
-        <v>0.168572</v>
+        <v>385.837593</v>
       </c>
       <c r="O6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q6">
-        <v>0.07424053229688889</v>
+        <v>4998.377255487478</v>
       </c>
       <c r="R6">
-        <v>0.668164790672</v>
+        <v>44985.3952993873</v>
       </c>
       <c r="S6">
-        <v>4.294503016486884E-06</v>
+        <v>0.1529219753378593</v>
       </c>
       <c r="T6">
-        <v>4.294503016486885E-06</v>
+        <v>0.1529219753378593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>3.963676</v>
       </c>
       <c r="I7">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J7">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>139.7989746666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N7">
-        <v>419.396924</v>
+        <v>6.321202</v>
       </c>
       <c r="O7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q7">
-        <v>184.7059469036249</v>
+        <v>2.783910739839111</v>
       </c>
       <c r="R7">
-        <v>1662.353522132624</v>
+        <v>25.055196658552</v>
       </c>
       <c r="S7">
-        <v>0.01068446334636429</v>
+        <v>8.517186833648849E-05</v>
       </c>
       <c r="T7">
-        <v>0.01068446334636429</v>
+        <v>8.517186833648849E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>3.963676</v>
       </c>
       <c r="I8">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J8">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>188.11053</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N8">
-        <v>564.33159</v>
+        <v>657.462113</v>
       </c>
       <c r="O8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q8">
-        <v>248.53639770276</v>
+        <v>289.5518664674876</v>
       </c>
       <c r="R8">
-        <v>2236.82757932484</v>
+        <v>2605.966798207388</v>
       </c>
       <c r="S8">
-        <v>0.01437678686587238</v>
+        <v>0.008858643739697847</v>
       </c>
       <c r="T8">
-        <v>0.01437678686587239</v>
+        <v>0.008858643739697849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>3.963676</v>
       </c>
       <c r="I9">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J9">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>99.694255</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N9">
-        <v>299.082765</v>
+        <v>0.13486</v>
       </c>
       <c r="O9">
-        <v>0.2331157147689297</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P9">
-        <v>0.2331157147689298</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q9">
-        <v>131.7185752937933</v>
+        <v>0.05939348281777778</v>
       </c>
       <c r="R9">
-        <v>1185.46717764414</v>
+        <v>0.53454134536</v>
       </c>
       <c r="S9">
-        <v>0.007619366421895319</v>
+        <v>1.817103481878738E-06</v>
       </c>
       <c r="T9">
-        <v>0.007619366421895321</v>
+        <v>1.817103481878738E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.659826666666667</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H10">
-        <v>16.97948</v>
+        <v>3.963676</v>
       </c>
       <c r="I10">
-        <v>0.140014671974952</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J10">
-        <v>0.140014671974952</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05619066666666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N10">
-        <v>0.168572</v>
+        <v>656.961365</v>
       </c>
       <c r="O10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q10">
-        <v>0.3180294336177778</v>
+        <v>289.3313328197489</v>
       </c>
       <c r="R10">
-        <v>2.86226490256</v>
+        <v>2603.98199537774</v>
       </c>
       <c r="S10">
-        <v>1.839666715402034E-05</v>
+        <v>0.008851896661732967</v>
       </c>
       <c r="T10">
-        <v>1.839666715402034E-05</v>
+        <v>0.008851896661732967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.659826666666667</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H11">
-        <v>16.97948</v>
+        <v>3.963676</v>
       </c>
       <c r="I11">
-        <v>0.140014671974952</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J11">
-        <v>0.140014671974952</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7989746666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N11">
-        <v>419.396924</v>
+        <v>385.837593</v>
       </c>
       <c r="O11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q11">
-        <v>791.2379647910579</v>
+        <v>169.9261341413187</v>
       </c>
       <c r="R11">
-        <v>7121.141683119521</v>
+        <v>1529.335207271868</v>
       </c>
       <c r="S11">
-        <v>0.04576979341912042</v>
+        <v>0.005198775275693394</v>
       </c>
       <c r="T11">
-        <v>0.04576979341912042</v>
+        <v>0.005198775275693394</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.659826666666667</v>
+        <v>8.299896</v>
       </c>
       <c r="H12">
-        <v>16.97948</v>
+        <v>24.899688</v>
       </c>
       <c r="I12">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J12">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>188.11053</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N12">
-        <v>564.33159</v>
+        <v>6.321202</v>
       </c>
       <c r="O12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q12">
-        <v>1064.6729939748</v>
+        <v>17.488439731664</v>
       </c>
       <c r="R12">
-        <v>9582.056945773202</v>
+        <v>157.395957584976</v>
       </c>
       <c r="S12">
-        <v>0.06158686155309942</v>
+        <v>0.0005350469987848762</v>
       </c>
       <c r="T12">
-        <v>0.06158686155309942</v>
+        <v>0.0005350469987848762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.659826666666667</v>
+        <v>8.299896</v>
       </c>
       <c r="H13">
-        <v>16.97948</v>
+        <v>24.899688</v>
       </c>
       <c r="I13">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J13">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,43 +1243,43 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>99.694255</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N13">
-        <v>299.082765</v>
+        <v>657.462113</v>
       </c>
       <c r="O13">
-        <v>0.2331157147689297</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P13">
-        <v>0.2331157147689298</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q13">
-        <v>564.2522029624668</v>
+        <v>1818.955720613416</v>
       </c>
       <c r="R13">
-        <v>5078.269826662201</v>
+        <v>16370.60148552074</v>
       </c>
       <c r="S13">
-        <v>0.03263962033557818</v>
+        <v>0.05564972142567396</v>
       </c>
       <c r="T13">
-        <v>0.03263962033557818</v>
+        <v>0.05564972142567397</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.039172</v>
+        <v>8.299896</v>
       </c>
       <c r="H14">
-        <v>3.117516</v>
+        <v>24.899688</v>
       </c>
       <c r="I14">
-        <v>0.02570738209395485</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J14">
-        <v>0.02570738209395486</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.05619066666666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N14">
-        <v>0.168572</v>
+        <v>0.13486</v>
       </c>
       <c r="O14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q14">
-        <v>0.05839176746133333</v>
+        <v>0.3731079915200001</v>
       </c>
       <c r="R14">
-        <v>0.525525907152</v>
+        <v>3.357971923680001</v>
       </c>
       <c r="S14">
-        <v>3.377718528443326E-06</v>
+        <v>1.141498693699844E-05</v>
       </c>
       <c r="T14">
-        <v>3.377718528443326E-06</v>
+        <v>1.141498693699844E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.039172</v>
+        <v>8.299896</v>
       </c>
       <c r="H15">
-        <v>3.117516</v>
+        <v>24.899688</v>
       </c>
       <c r="I15">
-        <v>0.02570738209395485</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J15">
-        <v>0.02570738209395486</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>139.7989746666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N15">
-        <v>419.396924</v>
+        <v>656.961365</v>
       </c>
       <c r="O15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q15">
-        <v>145.2751801023093</v>
+        <v>1817.57033517268</v>
       </c>
       <c r="R15">
-        <v>1307.476620920784</v>
+        <v>16358.13301655412</v>
       </c>
       <c r="S15">
-        <v>0.008403559078417158</v>
+        <v>0.05560733649405059</v>
       </c>
       <c r="T15">
-        <v>0.00840355907841716</v>
+        <v>0.05560733649405059</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.039172</v>
+        <v>8.299896</v>
       </c>
       <c r="H16">
-        <v>3.117516</v>
+        <v>24.899688</v>
       </c>
       <c r="I16">
-        <v>0.02570738209395485</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J16">
-        <v>0.02570738209395486</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>188.11053</v>
+        <v>128.612531</v>
       </c>
       <c r="N16">
-        <v>564.33159</v>
+        <v>385.837593</v>
       </c>
       <c r="O16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q16">
-        <v>195.47919568116</v>
+        <v>1067.470631596776</v>
       </c>
       <c r="R16">
-        <v>1759.31276113044</v>
+        <v>9607.235684370986</v>
       </c>
       <c r="S16">
-        <v>0.01130765054533898</v>
+        <v>0.03265854281401394</v>
       </c>
       <c r="T16">
-        <v>0.01130765054533898</v>
+        <v>0.03265854281401394</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.039172</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H17">
-        <v>3.117516</v>
+        <v>2.377846</v>
       </c>
       <c r="I17">
-        <v>0.02570738209395485</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J17">
-        <v>0.02570738209395486</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>99.694255</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N17">
-        <v>299.082765</v>
+        <v>6.321202</v>
       </c>
       <c r="O17">
-        <v>0.2331157147689297</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P17">
-        <v>0.2331157147689298</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q17">
-        <v>103.59947835686</v>
+        <v>1.670093876765778</v>
       </c>
       <c r="R17">
-        <v>932.39530521174</v>
+        <v>15.030844890892</v>
       </c>
       <c r="S17">
-        <v>0.00599279475167027</v>
+        <v>5.109539388094432E-05</v>
       </c>
       <c r="T17">
-        <v>0.005992794751670272</v>
+        <v>5.109539388094431E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.718923666666667</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H18">
-        <v>11.156771</v>
+        <v>2.377846</v>
       </c>
       <c r="I18">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J18">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05619066666666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N18">
-        <v>0.168572</v>
+        <v>657.462113</v>
       </c>
       <c r="O18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q18">
-        <v>0.2089688001124444</v>
+        <v>173.7048506165109</v>
       </c>
       <c r="R18">
-        <v>1.880719201012</v>
+        <v>1563.343655548598</v>
       </c>
       <c r="S18">
-        <v>1.208796751140946E-05</v>
+        <v>0.005314382553434128</v>
       </c>
       <c r="T18">
-        <v>1.208796751140946E-05</v>
+        <v>0.005314382553434129</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.718923666666667</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H19">
-        <v>11.156771</v>
+        <v>2.377846</v>
       </c>
       <c r="I19">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J19">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>139.7989746666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N19">
-        <v>419.396924</v>
+        <v>0.13486</v>
       </c>
       <c r="O19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q19">
-        <v>519.9017154636005</v>
+        <v>0.03563070128444445</v>
       </c>
       <c r="R19">
-        <v>4679.115439172404</v>
+        <v>0.32067631156</v>
       </c>
       <c r="S19">
-        <v>0.03007413088589482</v>
+        <v>1.090097234479163E-06</v>
       </c>
       <c r="T19">
-        <v>0.03007413088589482</v>
+        <v>1.090097234479162E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.718923666666667</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H20">
-        <v>11.156771</v>
+        <v>2.377846</v>
       </c>
       <c r="I20">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J20">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>188.11053</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N20">
-        <v>564.33159</v>
+        <v>656.961365</v>
       </c>
       <c r="O20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q20">
-        <v>699.56870196621</v>
+        <v>173.5725504355322</v>
       </c>
       <c r="R20">
-        <v>6296.118317695889</v>
+        <v>1562.15295391979</v>
       </c>
       <c r="S20">
-        <v>0.04046711153443065</v>
+        <v>0.005310334918776179</v>
       </c>
       <c r="T20">
-        <v>0.04046711153443065</v>
+        <v>0.005310334918776179</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.718923666666667</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H21">
-        <v>11.156771</v>
+        <v>2.377846</v>
       </c>
       <c r="I21">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J21">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>99.694255</v>
+        <v>128.612531</v>
       </c>
       <c r="N21">
-        <v>299.082765</v>
+        <v>385.837593</v>
       </c>
       <c r="O21">
-        <v>0.2331157147689297</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P21">
-        <v>0.2331157147689298</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q21">
-        <v>370.7553243502016</v>
+        <v>101.9402641294087</v>
       </c>
       <c r="R21">
-        <v>3336.797919151815</v>
+        <v>917.4623771646781</v>
       </c>
       <c r="S21">
-        <v>0.0214466385078335</v>
+        <v>0.003118793512438059</v>
       </c>
       <c r="T21">
-        <v>0.02144663850783351</v>
+        <v>0.003118793512438058</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.462671</v>
+        <v>5.230638</v>
       </c>
       <c r="H22">
-        <v>13.388013</v>
+        <v>15.691914</v>
       </c>
       <c r="I22">
-        <v>0.1103990374611822</v>
+        <v>0.09104074976587569</v>
       </c>
       <c r="J22">
-        <v>0.1103990374611822</v>
+        <v>0.0910407497658757</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,33 +1801,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N22">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q22">
-        <v>0.250760458604</v>
+        <v>11.021306462292</v>
       </c>
       <c r="R22">
-        <v>2.256844127436</v>
+        <v>99.19175816062801</v>
       </c>
       <c r="S22">
-        <v>1.450543944895234E-05</v>
+        <v>0.0003371894254614909</v>
       </c>
       <c r="T22">
-        <v>1.450543944895234E-05</v>
+        <v>0.000337189425461491</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.462671</v>
+        <v>5.230638</v>
       </c>
       <c r="H23">
-        <v>13.388013</v>
+        <v>15.691914</v>
       </c>
       <c r="I23">
-        <v>0.1103990374611822</v>
+        <v>0.09104074976587569</v>
       </c>
       <c r="J23">
-        <v>0.1103990374611822</v>
+        <v>0.0910407497658757</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N23">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q23">
-        <v>623.8768300746681</v>
+        <v>1146.315437272698</v>
       </c>
       <c r="R23">
-        <v>5614.891470672012</v>
+        <v>10316.83893545428</v>
       </c>
       <c r="S23">
-        <v>0.03608865461736746</v>
+        <v>0.03507074637785152</v>
       </c>
       <c r="T23">
-        <v>0.03608865461736747</v>
+        <v>0.03507074637785153</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.462671</v>
+        <v>5.230638</v>
       </c>
       <c r="H24">
-        <v>13.388013</v>
+        <v>15.691914</v>
       </c>
       <c r="I24">
-        <v>0.1103990374611822</v>
+        <v>0.09104074976587569</v>
       </c>
       <c r="J24">
-        <v>0.1103990374611822</v>
+        <v>0.0910407497658757</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N24">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q24">
-        <v>839.4754070256301</v>
+        <v>0.23513461356</v>
       </c>
       <c r="R24">
-        <v>7555.278663230671</v>
+        <v>2.11621152204</v>
       </c>
       <c r="S24">
-        <v>0.04856012687680042</v>
+        <v>7.193784650092921E-06</v>
       </c>
       <c r="T24">
-        <v>0.04856012687680042</v>
+        <v>7.193784650092922E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.230638</v>
+      </c>
+      <c r="H25">
+        <v>15.691914</v>
+      </c>
+      <c r="I25">
+        <v>0.09104074976587569</v>
+      </c>
+      <c r="J25">
+        <v>0.0910407497658757</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N25">
+        <v>656.961365</v>
+      </c>
+      <c r="O25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q25">
+        <v>1145.44236010029</v>
+      </c>
+      <c r="R25">
+        <v>10308.98124090261</v>
+      </c>
+      <c r="S25">
+        <v>0.03504403517159344</v>
+      </c>
+      <c r="T25">
+        <v>0.03504403517159345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.230638</v>
+      </c>
+      <c r="H26">
+        <v>15.691914</v>
+      </c>
+      <c r="I26">
+        <v>0.09104074976587569</v>
+      </c>
+      <c r="J26">
+        <v>0.0910407497658757</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>128.612531</v>
+      </c>
+      <c r="N26">
+        <v>385.837593</v>
+      </c>
+      <c r="O26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q26">
+        <v>672.7255919247781</v>
+      </c>
+      <c r="R26">
+        <v>6054.530327323003</v>
+      </c>
+      <c r="S26">
+        <v>0.02058158500631914</v>
+      </c>
+      <c r="T26">
+        <v>0.02058158500631915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4.462671</v>
-      </c>
-      <c r="H25">
-        <v>13.388013</v>
-      </c>
-      <c r="I25">
-        <v>0.1103990374611822</v>
-      </c>
-      <c r="J25">
-        <v>0.1103990374611822</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>99.694255</v>
-      </c>
-      <c r="N25">
-        <v>299.082765</v>
-      </c>
-      <c r="O25">
-        <v>0.2331157147689297</v>
-      </c>
-      <c r="P25">
-        <v>0.2331157147689298</v>
-      </c>
-      <c r="Q25">
-        <v>444.902660655105</v>
-      </c>
-      <c r="R25">
-        <v>4004.123945895945</v>
-      </c>
-      <c r="S25">
-        <v>0.02573575052756533</v>
-      </c>
-      <c r="T25">
-        <v>0.02573575052756534</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.945592666666666</v>
+      </c>
+      <c r="H27">
+        <v>8.836777999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="J27">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>2.107067333333334</v>
+      </c>
+      <c r="N27">
+        <v>6.321202</v>
+      </c>
+      <c r="O27">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="P27">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="Q27">
+        <v>6.206562085239556</v>
+      </c>
+      <c r="R27">
+        <v>55.859058767156</v>
+      </c>
+      <c r="S27">
+        <v>0.0001898855739810161</v>
+      </c>
+      <c r="T27">
+        <v>0.0001898855739810161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.945592666666666</v>
+      </c>
+      <c r="H28">
+        <v>8.836777999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="J28">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>219.1540376666667</v>
+      </c>
+      <c r="N28">
+        <v>657.462113</v>
+      </c>
+      <c r="O28">
+        <v>0.3852203158260555</v>
+      </c>
+      <c r="P28">
+        <v>0.3852203158260556</v>
+      </c>
+      <c r="Q28">
+        <v>645.5385262213238</v>
+      </c>
+      <c r="R28">
+        <v>5809.846735991914</v>
+      </c>
+      <c r="S28">
+        <v>0.01974981509810582</v>
+      </c>
+      <c r="T28">
+        <v>0.01974981509810582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.945592666666666</v>
+      </c>
+      <c r="H29">
+        <v>8.836777999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="J29">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.04495333333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.13486</v>
+      </c>
+      <c r="O29">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="P29">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="Q29">
+        <v>0.1324142090088889</v>
+      </c>
+      <c r="R29">
+        <v>1.19172788108</v>
+      </c>
+      <c r="S29">
+        <v>4.051123268498593E-06</v>
+      </c>
+      <c r="T29">
+        <v>4.051123268498593E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.945592666666666</v>
+      </c>
+      <c r="H30">
+        <v>8.836777999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="J30">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N30">
+        <v>656.961365</v>
+      </c>
+      <c r="O30">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P30">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q30">
+        <v>645.0468596757744</v>
+      </c>
+      <c r="R30">
+        <v>5805.42173708197</v>
+      </c>
+      <c r="S30">
+        <v>0.01973477289230384</v>
+      </c>
+      <c r="T30">
+        <v>0.01973477289230384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.945592666666666</v>
+      </c>
+      <c r="H31">
+        <v>8.836777999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="J31">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>128.612531</v>
+      </c>
+      <c r="N31">
+        <v>385.837593</v>
+      </c>
+      <c r="O31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q31">
+        <v>378.8401281550393</v>
+      </c>
+      <c r="R31">
+        <v>3409.561153395354</v>
+      </c>
+      <c r="S31">
+        <v>0.01159035778484198</v>
+      </c>
+      <c r="T31">
+        <v>0.01159035778484198</v>
       </c>
     </row>
   </sheetData>
